--- a/data/trans_bre/P16A02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,56%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,77; 16,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,59; 19,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,29; 22,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,06; 29,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,54; 100,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,62; 89,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,39; 102,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,31; 97,48</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,33</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,84%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,8%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,16; 9,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,77; 16,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,76; 13,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,93; 26,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,81; 88,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,67; 106,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,36; 81,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,85; 124,65</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>149,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,78%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,34; 12,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,67; 21,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,66; 12,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,14; 14,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,82; 124,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>82,48; 248,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,02; 79,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,91; 83,64</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,06%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,95; 11,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,43; 17,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,37; 14,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,4; 23,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,29; 88,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>70,93; 105,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,16; 80,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,04; 101,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,54</t>
+          <t>25,45</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>74,56%</t>
+          <t>74,14%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,06; 29,86</t>
+          <t>21,05; 29,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,31; 97,48</t>
+          <t>56,73; 96,13</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,33</t>
+          <t>19,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>92,46%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,93; 26,71</t>
+          <t>10,94; 38,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,85; 124,65</t>
+          <t>48,69; 224,91</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,97</t>
+          <t>9,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,78%</t>
+          <t>50,21%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 14,33</t>
+          <t>4,95; 14,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,91; 83,64</t>
+          <t>21,06; 80,86</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>19,48</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>73,06%</t>
+          <t>86,71%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 23,41</t>
+          <t>14,27; 31,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,04; 101,16</t>
+          <t>57,85; 152,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A02-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,77; 16,8</t>
+          <t>9,83; 16,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,59; 19,99</t>
+          <t>12,28; 19,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,29; 22,14</t>
+          <t>13,11; 22,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,05; 29,79</t>
+          <t>20,64; 29,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,54; 100,55</t>
+          <t>48,3; 102,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>42,62; 89,72</t>
+          <t>45,66; 88,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>50,39; 102,28</t>
+          <t>48,93; 102,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>56,73; 96,13</t>
+          <t>55,24; 96,7</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 9,45</t>
+          <t>4,38; 9,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,77; 16,22</t>
+          <t>10,38; 15,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,76; 13,16</t>
+          <t>7,55; 12,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,94; 38,27</t>
+          <t>10,86; 38,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,81; 88,23</t>
+          <t>32,98; 89,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,67; 106,91</t>
+          <t>58,91; 106,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,36; 81,89</t>
+          <t>41,31; 80,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,69; 224,91</t>
+          <t>47,79; 225,99</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,34; 12,39</t>
+          <t>3,36; 12,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,67; 21,22</t>
+          <t>10,75; 21,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 12,93</t>
+          <t>2,76; 13,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 14,29</t>
+          <t>4,82; 14,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,82; 124,36</t>
+          <t>24,49; 129,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,48; 248,12</t>
+          <t>81,93; 249,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,02; 79,69</t>
+          <t>13,08; 82,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,06; 80,86</t>
+          <t>20,71; 87,35</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,95; 11,55</t>
+          <t>8,06; 11,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,43; 17,7</t>
+          <t>13,41; 17,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,37; 14,45</t>
+          <t>10,29; 14,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,27; 31,2</t>
+          <t>14,31; 32,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,29; 88,99</t>
+          <t>54,56; 92,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>70,93; 105,47</t>
+          <t>71,42; 104,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,16; 80,99</t>
+          <t>52,42; 83,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>57,85; 152,95</t>
+          <t>58,35; 159,02</t>
         </is>
       </c>
     </row>
